--- a/data_excel/902.xlsx
+++ b/data_excel/902.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,9 +111,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
@@ -138,6 +135,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,16 +697,16 @@
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -746,7 +747,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -757,7 +758,7 @@
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -768,18 +769,18 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>

--- a/data_excel/902.xlsx
+++ b/data_excel/902.xlsx
@@ -126,19 +126,19 @@
     <t>72</t>
   </si>
   <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nv</t>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,27 +177,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -230,11 +215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -540,7 +524,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -698,10 +682,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -771,11 +755,11 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
